--- a/InputData/indst/PPRiFUfERoIF/Pot Perc Reduction in Fuel Use from Early Retirement.xlsx
+++ b/InputData/indst/PPRiFUfERoIF/Pot Perc Reduction in Fuel Use from Early Retirement.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\indst\PPRiFUfERoIF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/nj/indst/pprifuferoif/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD4898E6-CA5E-4B15-861F-FDDE8D5411E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83321D21-A210-8A41-9ADB-E721A33E4FC2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4245" yWindow="1290" windowWidth="23580" windowHeight="15330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4240" yWindow="1000" windowWidth="23580" windowHeight="15340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -569,7 +569,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -674,7 +674,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -683,7 +683,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -696,6 +696,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1035,22 +1036,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="81.5703125" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="81.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="17">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1058,92 +1062,92 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
         <v>2014</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -1160,34 +1164,34 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="106" customWidth="1"/>
-    <col min="2" max="5" width="9.140625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="2" max="5" width="9.1640625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="9" t="s">
         <v>21</v>
       </c>
@@ -1207,7 +1211,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -1215,7 +1219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -1232,7 +1236,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -1249,7 +1253,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -1257,7 +1261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -1274,7 +1278,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -1291,17 +1295,17 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -1309,7 +1313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
         <v>34</v>
       </c>
@@ -1326,7 +1330,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
         <v>35</v>
       </c>
@@ -1343,7 +1347,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -1351,7 +1355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
         <v>37</v>
       </c>
@@ -1368,7 +1372,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
         <v>38</v>
       </c>
@@ -1385,7 +1389,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -1393,7 +1397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
         <v>40</v>
       </c>
@@ -1410,7 +1414,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
         <v>41</v>
       </c>
@@ -1427,12 +1431,12 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -1440,7 +1444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
         <v>44</v>
       </c>
@@ -1457,7 +1461,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
         <v>45</v>
       </c>
@@ -1474,7 +1478,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>46</v>
       </c>
@@ -1483,7 +1487,7 @@
       </c>
       <c r="F27" s="14"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
         <v>47</v>
       </c>
@@ -1500,7 +1504,7 @@
         <v>-3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>48</v>
       </c>
@@ -1517,7 +1521,7 @@
         <v>-2E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>49</v>
       </c>
@@ -1525,7 +1529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
         <v>50</v>
       </c>
@@ -1542,7 +1546,7 @@
         <v>-3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
         <v>51</v>
       </c>
@@ -1559,7 +1563,7 @@
         <v>-2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>52</v>
       </c>
@@ -1567,7 +1571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
         <v>53</v>
       </c>
@@ -1584,7 +1588,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
         <v>54</v>
       </c>
@@ -1601,7 +1605,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>55</v>
       </c>
@@ -1609,7 +1613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>56</v>
       </c>
@@ -1626,7 +1630,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>57</v>
       </c>
@@ -1643,7 +1647,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>58</v>
       </c>
@@ -1651,7 +1655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="s">
         <v>59</v>
       </c>
@@ -1668,7 +1672,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
         <v>60</v>
       </c>
@@ -1685,7 +1689,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>61</v>
       </c>
@@ -1694,7 +1698,7 @@
       </c>
       <c r="F42" s="14"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="s">
         <v>62</v>
       </c>
@@ -1711,7 +1715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
         <v>63</v>
       </c>
@@ -1728,7 +1732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>64</v>
       </c>
@@ -1736,7 +1740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>65</v>
       </c>
@@ -1753,7 +1757,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>66</v>
       </c>
@@ -1770,7 +1774,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>67</v>
       </c>
@@ -1778,7 +1782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="s">
         <v>68</v>
       </c>
@@ -1795,7 +1799,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="11" t="s">
         <v>69</v>
       </c>
@@ -1812,7 +1816,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>70</v>
       </c>
@@ -1820,7 +1824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>71</v>
       </c>
@@ -1837,7 +1841,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>72</v>
       </c>
@@ -1854,7 +1858,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>73</v>
       </c>
@@ -1862,7 +1866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>74</v>
       </c>
@@ -1879,7 +1883,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>75</v>
       </c>
@@ -1896,7 +1900,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>76</v>
       </c>
@@ -1904,7 +1908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>77</v>
       </c>
@@ -1921,7 +1925,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>78</v>
       </c>
@@ -1938,7 +1942,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>79</v>
       </c>
@@ -1946,7 +1950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>80</v>
       </c>
@@ -1963,7 +1967,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>81</v>
       </c>
@@ -1980,7 +1984,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>82</v>
       </c>
@@ -1988,7 +1992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>83</v>
       </c>
@@ -2005,7 +2009,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>84</v>
       </c>
@@ -2022,7 +2026,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>85</v>
       </c>
@@ -2030,7 +2034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="11" t="s">
         <v>86</v>
       </c>
@@ -2047,7 +2051,7 @@
         <v>-2E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="11" t="s">
         <v>87</v>
       </c>
@@ -2064,7 +2068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>88</v>
       </c>
@@ -2072,7 +2076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>89</v>
       </c>
@@ -2089,7 +2093,7 @@
         <v>-2E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>90</v>
       </c>
@@ -2106,7 +2110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>91</v>
       </c>
@@ -2114,7 +2118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>92</v>
       </c>
@@ -2131,7 +2135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>93</v>
       </c>
@@ -2148,7 +2152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>94</v>
       </c>
@@ -2156,7 +2160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="11" t="s">
         <v>95</v>
       </c>
@@ -2173,7 +2177,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="11" t="s">
         <v>96</v>
       </c>
@@ -2190,7 +2194,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="9" t="s">
         <v>97</v>
       </c>
@@ -2198,7 +2202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="9" t="s">
         <v>98</v>
       </c>
@@ -2215,7 +2219,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="9" t="s">
         <v>99</v>
       </c>
@@ -2232,7 +2236,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="9" t="s">
         <v>100</v>
       </c>
@@ -2240,7 +2244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="11" t="s">
         <v>101</v>
       </c>
@@ -2257,7 +2261,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="11" t="s">
         <v>102</v>
       </c>
@@ -2274,7 +2278,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="9" t="s">
         <v>103</v>
       </c>
@@ -2282,7 +2286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="11" t="s">
         <v>104</v>
       </c>
@@ -2299,7 +2303,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="11" t="s">
         <v>105</v>
       </c>
@@ -2316,7 +2320,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="9" t="s">
         <v>106</v>
       </c>
@@ -2324,7 +2328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="9" t="s">
         <v>107</v>
       </c>
@@ -2341,7 +2345,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="9" t="s">
         <v>108</v>
       </c>
@@ -2358,7 +2362,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="9" t="s">
         <v>109</v>
       </c>
@@ -2366,7 +2370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="9" t="s">
         <v>110</v>
       </c>
@@ -2383,7 +2387,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="9" t="s">
         <v>111</v>
       </c>
@@ -2400,7 +2404,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="9" t="s">
         <v>112</v>
       </c>
@@ -2408,7 +2412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="11" t="s">
         <v>113</v>
       </c>
@@ -2425,7 +2429,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="11" t="s">
         <v>114</v>
       </c>
@@ -2442,7 +2446,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="9" t="s">
         <v>115</v>
       </c>
@@ -2451,7 +2455,7 @@
       </c>
       <c r="F96" s="9"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="11" t="s">
         <v>116</v>
       </c>
@@ -2468,7 +2472,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="11" t="s">
         <v>117</v>
       </c>
@@ -2485,7 +2489,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="9" t="s">
         <v>118</v>
       </c>
@@ -2493,7 +2497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="9" t="s">
         <v>119</v>
       </c>
@@ -2510,7 +2514,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="9" t="s">
         <v>120</v>
       </c>
@@ -2527,7 +2531,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>121</v>
       </c>
@@ -2535,7 +2539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="11" t="s">
         <v>122</v>
       </c>
@@ -2552,7 +2556,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="11" t="s">
         <v>123</v>
       </c>
@@ -2569,7 +2573,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>124</v>
       </c>
@@ -2577,7 +2581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="11" t="s">
         <v>125</v>
       </c>
@@ -2594,7 +2598,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="11" t="s">
         <v>126</v>
       </c>
@@ -2611,7 +2615,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>127</v>
       </c>
@@ -2619,7 +2623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="11" t="s">
         <v>128</v>
       </c>
@@ -2636,7 +2640,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="11" t="s">
         <v>129</v>
       </c>
@@ -2653,7 +2657,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>130</v>
       </c>
@@ -2661,7 +2665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="11" t="s">
         <v>131</v>
       </c>
@@ -2678,7 +2682,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="11" t="s">
         <v>132</v>
       </c>
@@ -2695,7 +2699,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>133</v>
       </c>
@@ -2703,7 +2707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="11" t="s">
         <v>134</v>
       </c>
@@ -2720,7 +2724,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="11" t="s">
         <v>135</v>
       </c>
@@ -2737,7 +2741,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>136</v>
       </c>
@@ -2745,7 +2749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="11" t="s">
         <v>137</v>
       </c>
@@ -2762,7 +2766,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="11" t="s">
         <v>138</v>
       </c>
@@ -2779,7 +2783,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>139</v>
       </c>
@@ -2787,7 +2791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>140</v>
       </c>
@@ -2804,7 +2808,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>141</v>
       </c>
@@ -2832,14 +2836,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="45.140625" customWidth="1"/>
-    <col min="2" max="2" width="36.85546875" customWidth="1"/>
-    <col min="3" max="3" width="68.42578125" customWidth="1"/>
+    <col min="1" max="1" width="45.1640625" customWidth="1"/>
+    <col min="2" max="2" width="36.83203125" customWidth="1"/>
+    <col min="3" max="3" width="68.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>170</v>
       </c>
@@ -2850,7 +2854,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>144</v>
       </c>
@@ -2859,7 +2863,7 @@
         <v>7.4647497926458081E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>145</v>
       </c>
@@ -2870,7 +2874,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>146</v>
       </c>
@@ -2881,7 +2885,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>147</v>
       </c>
@@ -2890,7 +2894,7 @@
         <v>5.8215962441314981E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>148</v>
       </c>
@@ -2899,7 +2903,7 @@
         <v>8.0025954363577585E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>149</v>
       </c>
@@ -2908,7 +2912,7 @@
         <v>0.13221153846153846</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>150</v>
       </c>
@@ -2917,7 +2921,7 @@
         <v>4.3859649122807022E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>151</v>
       </c>
@@ -2926,7 +2930,7 @@
         <v>2.3910528345545766E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>152</v>
       </c>
@@ -2935,7 +2939,7 @@
         <v>4.4599912549191031E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>153</v>
       </c>
@@ -2944,7 +2948,7 @@
         <v>1.9812758545612937E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>154</v>
       </c>
@@ -2953,7 +2957,7 @@
         <v>8.3017437452615639E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>155</v>
       </c>
@@ -2962,7 +2966,7 @@
         <v>6.8259385665529013E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>156</v>
       </c>
@@ -2971,7 +2975,7 @@
         <v>6.3063063063063002E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>157</v>
       </c>
@@ -2980,7 +2984,7 @@
         <v>8.8038858530661818E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>158</v>
       </c>
@@ -2989,7 +2993,7 @@
         <v>0.18111753371868977</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>159</v>
       </c>
@@ -2998,7 +3002,7 @@
         <v>1.2443168222062668E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>160</v>
       </c>
@@ -3007,7 +3011,7 @@
         <v>6.0952854832690348E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>161</v>
       </c>
@@ -3016,7 +3020,7 @@
         <v>9.0548953027730309E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>162</v>
       </c>
@@ -3025,7 +3029,7 @@
         <v>2.7473482872544024E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>163</v>
       </c>
@@ -3034,7 +3038,7 @@
         <v>8.5668534827862651E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>164</v>
       </c>
@@ -3043,7 +3047,7 @@
         <v>8.5668534827862651E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>165</v>
       </c>
@@ -3052,7 +3056,7 @@
         <v>1.0975227343994984E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>166</v>
       </c>
@@ -3063,7 +3067,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>167</v>
       </c>
@@ -3074,7 +3078,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>168</v>
       </c>
@@ -3097,13 +3101,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="46.28515625" customWidth="1"/>
+    <col min="1" max="1" width="46.33203125" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>174</v>
       </c>
@@ -3111,7 +3115,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>144</v>
       </c>
@@ -3120,7 +3124,7 @@
         <v>7.4647497926458081E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>145</v>
       </c>
@@ -3129,7 +3133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>146</v>
       </c>
@@ -3138,7 +3142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>147</v>
       </c>
@@ -3147,7 +3151,7 @@
         <v>5.8215962441314981E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>148</v>
       </c>
@@ -3156,7 +3160,7 @@
         <v>8.0025954363577585E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>149</v>
       </c>
@@ -3165,7 +3169,7 @@
         <v>0.13221153846153846</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>150</v>
       </c>
@@ -3174,7 +3178,7 @@
         <v>4.3859649122807022E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>151</v>
       </c>
@@ -3183,7 +3187,7 @@
         <v>2.3910528345545766E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>152</v>
       </c>
@@ -3192,7 +3196,7 @@
         <v>4.4599912549191031E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>153</v>
       </c>
@@ -3201,7 +3205,7 @@
         <v>1.9812758545612937E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>154</v>
       </c>
@@ -3210,7 +3214,7 @@
         <v>8.3017437452615639E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>155</v>
       </c>
@@ -3219,7 +3223,7 @@
         <v>6.8259385665529013E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>156</v>
       </c>
@@ -3228,7 +3232,7 @@
         <v>6.3063063063063002E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>157</v>
       </c>
@@ -3237,7 +3241,7 @@
         <v>8.8038858530661818E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>158</v>
       </c>
@@ -3246,7 +3250,7 @@
         <v>0.18111753371868977</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>159</v>
       </c>
@@ -3255,7 +3259,7 @@
         <v>1.2443168222062668E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>160</v>
       </c>
@@ -3264,7 +3268,7 @@
         <v>6.0952854832690348E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>161</v>
       </c>
@@ -3273,7 +3277,7 @@
         <v>9.0548953027730309E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>162</v>
       </c>
@@ -3282,7 +3286,7 @@
         <v>2.7473482872544024E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>163</v>
       </c>
@@ -3291,7 +3295,7 @@
         <v>8.5668534827862651E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>164</v>
       </c>
@@ -3300,7 +3304,7 @@
         <v>8.5668534827862651E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>165</v>
       </c>
@@ -3309,7 +3313,7 @@
         <v>1.0975227343994984E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>166</v>
       </c>
@@ -3318,7 +3322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>167</v>
       </c>
@@ -3327,7 +3331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>168</v>
       </c>

--- a/InputData/indst/PPRiFUfERoIF/Pot Perc Reduction in Fuel Use from Early Retirement.xlsx
+++ b/InputData/indst/PPRiFUfERoIF/Pot Perc Reduction in Fuel Use from Early Retirement.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/nj/indst/pprifuferoif/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/indst/pprifuferoif/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83321D21-A210-8A41-9ADB-E721A33E4FC2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CFDCBAA-726D-1D43-A797-6230BE88D957}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4240" yWindow="1000" windowWidth="23580" windowHeight="15340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4240" yWindow="1180" windowWidth="23580" windowHeight="15340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
